--- a/outputs/fft-o__Bacteroidales_pruned3-g__C941_wrapper.xlsx
+++ b/outputs/fft-o__Bacteroidales_pruned3-g__C941_wrapper.xlsx
@@ -348,177 +348,177 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.135379472510213</v>
+        <v>4.407100213681918</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.9971867032283233</v>
+        <v>0.5761442497735543</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1.449348395166658</v>
+        <v>4.95916897143957</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.3615110603125252</v>
+        <v>0.4175129225649558</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.9781930964858268</v>
+        <v>2.476046659269843</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>1.277801208847907</v>
+        <v>3.217465959526928</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1.072863346197794</v>
+        <v>3.978965452432706</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1.61417740122158</v>
+        <v>1.123749694328005</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>1.239975123077205</v>
+        <v>2.155129992591256</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.5481703240784941</v>
+        <v>4.027687716315429</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.7533100417417787</v>
+        <v>3.631604056405984</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.9260455646600753</v>
+        <v>5.121542300653665</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1.197817836185232</v>
+        <v>6.425304799397115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1.323718116540191</v>
+        <v>3.481046154849052</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1.269825692284684</v>
+        <v>2.550860371705196</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1.292799344264661</v>
+        <v>1.569509982111388</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>1.377162487610784</v>
+        <v>3.870936793702809</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1.260411915162596</v>
+        <v>3.182825522513514</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1.767548379358255</v>
+        <v>6.092194777327889</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.4793803589228467</v>
+        <v>1.135789587755272</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.9904514943275178</v>
+        <v>5.379058842384484</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1.262917315228932</v>
+        <v>4.290093625839799</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.3352221740216366</v>
+        <v>2.558140241748685</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1.208557013937672</v>
+        <v>2.882806843941693</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.9771724188279443</v>
+        <v>1.350474762069665</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.8197503438433051</v>
+        <v>2.031381844650165</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1.052733095456098</v>
+        <v>4.118602881232039</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1.205941170649818</v>
+        <v>5.035402734761024</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>1.461764561109077</v>
+        <v>3.780235537006346</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.9500957143875292</v>
+        <v>4.028444504788879</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4415915882452965</v>
+        <v>2.784498422919572</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>1.271755478627783</v>
+        <v>4.472460992245841</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1.847208385154309</v>
+        <v>3.894902996464473</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>1.530472502879052</v>
+        <v>2.727825709778505</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1.158760787220982</v>
+        <v>2.011793507314218</v>
       </c>
     </row>
   </sheetData>
